--- a/forecast_summary_B083RW9KDM.xlsx
+++ b/forecast_summary_B083RW9KDM.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>51.39468821272818</v>
       </c>
       <c r="D2" t="n">
-        <v>77.30439382526637</v>
+        <v>78.62421156882014</v>
       </c>
       <c r="E2" t="n">
         <v>44</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="n">
         <v>58.66160790431814</v>
       </c>
       <c r="D3" t="n">
-        <v>86.52917695452258</v>
+        <v>87.9922648907371</v>
       </c>
       <c r="E3" t="n">
         <v>30</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>61.88303883124406</v>
       </c>
       <c r="D4" t="n">
-        <v>90.02569511457445</v>
+        <v>91.29534154277108</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>56.46087111388215</v>
       </c>
       <c r="D5" t="n">
-        <v>82.73109351542006</v>
+        <v>83.48878717680589</v>
       </c>
       <c r="E5" t="n">
         <v>26</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
         <v>46.62906099047442</v>
       </c>
       <c r="D6" t="n">
-        <v>75.88970205697549</v>
+        <v>74.96976099882913</v>
       </c>
       <c r="E6" t="n">
         <v>26</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>41.03064810330251</v>
       </c>
       <c r="D7" t="n">
-        <v>69.51946593794996</v>
+        <v>70.16650253000778</v>
       </c>
       <c r="E7" t="n">
         <v>27</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>43.006017971648</v>
       </c>
       <c r="D8" t="n">
-        <v>72.74869851978572</v>
+        <v>70.65506205475381</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="n">
         <v>47.63234815549498</v>
       </c>
       <c r="D9" t="n">
-        <v>75.0772432052333</v>
+        <v>76.56963345142083</v>
       </c>
       <c r="E9" t="n">
         <v>26</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>48.31297239991552</v>
       </c>
       <c r="D10" t="n">
-        <v>75.47450253941295</v>
+        <v>76.89255952478527</v>
       </c>
       <c r="E10" t="n">
         <v>26</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>44.0918060291509</v>
       </c>
       <c r="D11" t="n">
-        <v>70.25907458891584</v>
+        <v>72.54946857570263</v>
       </c>
       <c r="E11" t="n">
         <v>31</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>39.33109881987941</v>
       </c>
       <c r="D12" t="n">
-        <v>67.38923592517459</v>
+        <v>67.28427028436917</v>
       </c>
       <c r="E12" t="n">
         <v>31</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
         <v>37.7403661005461</v>
       </c>
       <c r="D13" t="n">
-        <v>65.30322678170887</v>
+        <v>67.38240547268089</v>
       </c>
       <c r="E13" t="n">
         <v>32</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>38.85895645684938</v>
       </c>
       <c r="D14" t="n">
-        <v>67.91623043968326</v>
+        <v>65.86833548006798</v>
       </c>
       <c r="E14" t="n">
         <v>31</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>40.19763158884146</v>
       </c>
       <c r="D15" t="n">
-        <v>68.45698210162858</v>
+        <v>70.57755519982346</v>
       </c>
       <c r="E15" t="n">
         <v>31</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
         <v>40.53216095645776</v>
       </c>
       <c r="D16" t="n">
-        <v>70.55748469905581</v>
+        <v>66.97610472941913</v>
       </c>
       <c r="E16" t="n">
         <v>31</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>39.82140064333248</v>
       </c>
       <c r="D17" t="n">
-        <v>68.71624334470829</v>
+        <v>67.84696450971687</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>37.44198904325352</v>
       </c>
       <c r="D18" t="n">
-        <v>66.56092847427814</v>
+        <v>64.45443379588062</v>
       </c>
       <c r="E18" t="n">
         <v>29</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>32.87774025020217</v>
       </c>
       <c r="D19" t="n">
-        <v>61.35632207347857</v>
+        <v>62.0705322166908</v>
       </c>
       <c r="E19" t="n">
         <v>29</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>28.16454081061901</v>
       </c>
       <c r="D20" t="n">
-        <v>56.40931844840466</v>
+        <v>54.20763826906831</v>
       </c>
       <c r="E20" t="n">
         <v>31</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>27.22369137371924</v>
       </c>
       <c r="D21" t="n">
-        <v>54.9854229129482</v>
+        <v>57.82696522627787</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 A ELITE X WIFI7</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>782</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>430</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>240</t>
         </is>
       </c>
     </row>
